--- a/biology/Botanique/Bolet_odorant/Bolet_odorant.xlsx
+++ b/biology/Botanique/Bolet_odorant/Bolet_odorant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lanmaoa fragrans
 Lanmaoa fragrans, le Bolet odorant, anciennement Boletus fragrans, est une espèce de champignons (Fungi) basidiomycètes du genre Lanmaoa et de la famille des Boletaceae. Il est caractérisé par son pied lisse radicant, sa chair plus au moins bleuissante à la coupe et son odeur fruitée.
@@ -512,11 +524,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Lanmaoa fragrans (Vittad.) Vizzini, Gelardi &amp; Simonini[1]. L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus fragrans Vittad.[1].
-Synonymes
-Lanmaoa fragrans a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Lanmaoa fragrans (Vittad.) Vizzini, Gelardi &amp; Simonini. L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus fragrans Vittad..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolet_odorant</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_odorant</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lanmaoa fragrans a pour synonymes :
 Boletus fragrans Vittad.
 Boletus xanthoporus Krombh., 1846
 Leccinum fragrans (Vittad.) Šutara
@@ -524,48 +573,155 @@
 Tubiporus fragrans (Vittad.) Ricken
 Versipellis fragrans (Vittad.) Quél.
 Xerocomus fragrans (Vittad.) Konrad &amp; Maublanc
-Phylogénie
-Décrit à l'origine en 1835 par le mycologue italien Carlo Vittadini comme une espèce de Boletus, le champignon a été transféré vers le genre Lanmaoa en 2015 par Alfredo Vizzini.
-Étymologie
-L'épithète fragrans fait référence à l'odeur fruitée du Bolet.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Bolet_odorant</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bolet_odorant</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit à l'origine en 1835 par le mycologue italien Carlo Vittadini comme une espèce de Boletus, le champignon a été transféré vers le genre Lanmaoa en 2015 par Alfredo Vizzini.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bolet_odorant</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_odorant</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète fragrans fait référence à l'odeur fruitée du Bolet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bolet_odorant</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_odorant</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Lanmaoa fragrans sont les suivantes :
-Son chapeau mesure de 5 à 15 cm, il est velouté, sec et mat, de couleur uniforme brune, brun chocolat, châtain obscur à brun rougeâtre[2],[3].
-L'hyménophore présente des tubes jaunes puis jaune olivâtre, brun bleuâtre au toucher. Les pores sont fins, concolores aux tubes[2].
-Son stipe mesure 5 à 10 cm x 2 à 4 cm. Il est lisse, sans réseau ni autre ornementation, mais pruineux ou finement feutré de couleur jaune, à la base brun rougeâtre et de forme pointue, radicante. Sa surface est bleuissante[3],[2].
-Sa chair est jaune pâle, bleuissante. Elle dégage une odeur agréable, fruitée puis rappelant la chicorée lorsque le champignon se dessèche[2],[3]. Sa saveur est douce ou piquante, parfois acidulée ou amarescente. Elle est particulièrement parfumée après dessication[4].
-Caractéristiques microscopiques
-Ses spores mesurent 11-13 x 3,5-4,5 µm[3].
+Son chapeau mesure de 5 à 15 cm, il est velouté, sec et mat, de couleur uniforme brune, brun chocolat, châtain obscur à brun rougeâtre,.
+L'hyménophore présente des tubes jaunes puis jaune olivâtre, brun bleuâtre au toucher. Les pores sont fins, concolores aux tubes.
+Son stipe mesure 5 à 10 cm x 2 à 4 cm. Il est lisse, sans réseau ni autre ornementation, mais pruineux ou finement feutré de couleur jaune, à la base brun rougeâtre et de forme pointue, radicante. Sa surface est bleuissante,.
+Sa chair est jaune pâle, bleuissante. Elle dégage une odeur agréable, fruitée puis rappelant la chicorée lorsque le champignon se dessèche,. Sa saveur est douce ou piquante, parfois acidulée ou amarescente. Elle est particulièrement parfumée après dessication.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bolet_odorant</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_odorant</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 11-13 x 3,5-4,5 µm.
 </t>
         </is>
       </c>
